--- a/model/UnmetDemand/model_inputs_feedin.xlsx
+++ b/model/UnmetDemand/model_inputs_feedin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/Model-1/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="6_{7DA8CDEE-914B-4384-BE83-347F050180D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB83D6F9-86C7-443A-8984-824825FB730C}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="6_{7DA8CDEE-914B-4384-BE83-347F050180D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C597B9F4-6C11-47F1-B8B5-234158BC426A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,21 @@
   <definedNames>
     <definedName name="d">'elec_demand (2)'!$B$6:$Y$8</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -286,6 +297,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -668,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E688FB98-37F3-4971-B4CD-1E6A7262204F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1407,7 +1422,7 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1494,257 +1509,231 @@
         <v>39</v>
       </c>
       <c r="B2" s="5">
-        <v>0.93899999999999995</v>
+        <v>0.52236078409734032</v>
       </c>
       <c r="C2" s="5">
-        <v>0.88400000000000001</v>
+        <v>0.4976949585403172</v>
       </c>
       <c r="D2" s="5">
-        <v>0.82899999999999996</v>
+        <v>0.44207707194659279</v>
       </c>
       <c r="E2" s="5">
-        <v>0.77300000000000002</v>
+        <v>0.43777742669441688</v>
       </c>
       <c r="F2" s="5">
-        <v>0.76700000000000002</v>
+        <v>0.43521624705520451</v>
       </c>
       <c r="G2" s="5">
-        <v>0.81099999999999994</v>
+        <v>0.44180383833619113</v>
       </c>
       <c r="H2" s="5">
-        <v>0.95399999999999996</v>
+        <v>0.54106076854734952</v>
       </c>
       <c r="I2" s="5">
-        <v>0.96799999999999997</v>
+        <v>0.42634358331726746</v>
       </c>
       <c r="J2" s="5">
-        <v>0.9910000000000001</v>
+        <v>5.5185836606441468E-2</v>
       </c>
       <c r="K2" s="5">
-        <v>1.135</v>
+        <v>0</v>
       </c>
       <c r="L2" s="5">
-        <v>1.1279999999999999</v>
+        <v>0</v>
       </c>
       <c r="M2" s="5">
-        <v>1.0720000000000001</v>
+        <v>0.85710571282254688</v>
       </c>
       <c r="N2" s="5">
-        <v>1.0660000000000001</v>
+        <v>0.75157316231470117</v>
       </c>
       <c r="O2" s="5">
-        <v>1.04</v>
+        <v>0.1106265662584133</v>
       </c>
       <c r="P2" s="5">
-        <v>0.95400000000000007</v>
+        <v>4.5206305619120257E-4</v>
       </c>
       <c r="Q2" s="5">
-        <v>0.94900000000000007</v>
+        <v>0.27216170760233921</v>
       </c>
       <c r="R2" s="5">
-        <v>0.91400000000000003</v>
+        <v>0.8589286852955188</v>
       </c>
       <c r="S2" s="5">
-        <v>0.88900000000000001</v>
+        <v>0.77759857125927601</v>
       </c>
       <c r="T2" s="5">
-        <v>1.034</v>
+        <v>0.69239434587640869</v>
       </c>
       <c r="U2" s="5">
-        <v>1.08</v>
+        <v>0.70649159906935721</v>
       </c>
       <c r="V2" s="5">
-        <v>1.075</v>
+        <v>0.65930040212538521</v>
       </c>
       <c r="W2" s="5">
-        <v>1.0209999999999999</v>
+        <v>0.68374114412375109</v>
       </c>
       <c r="X2" s="5">
-        <v>0.86699999999999999</v>
+        <v>0.6465764204867005</v>
       </c>
       <c r="Y2" s="5">
-        <v>0.81399999999999995</v>
+        <v>0.52784287934130891</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0.88</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="R3" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="S3" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="T3" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="U3" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="V3" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="W3" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="X3" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>0.7</v>
+      <c r="B3" s="5">
+        <v>0.4532206627457997</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.42851577557190434</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.41006267002011798</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.40494640291925321</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.39784783272475621</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.38060888785304442</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.44094170202831029</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.36984876816358681</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.1610332845513586</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.16500218302712158</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.1795243482064742</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.60589728860724901</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.55241256230345737</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.2224012234616651</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.16611764933212009</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.29977080383309129</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.59922026403460227</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.52830165596237877</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0.43544264977072078</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0.4004820172299548</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0.42149519720844475</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0.4546003728097659</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0.45266785406408228</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0.42511548495894508</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.84800000000000009</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.752</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.754</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.80699999999999994</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1.0130000000000001</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1.165</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1.167</v>
-      </c>
-      <c r="M4" s="6">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="N4" s="6">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="O4" s="6">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1.024</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>1.026</v>
-      </c>
-      <c r="R4" s="6">
-        <v>0.998</v>
-      </c>
-      <c r="S4" s="6">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="T4" s="6">
-        <v>1.131</v>
-      </c>
-      <c r="U4" s="6">
-        <v>1.1819999999999999</v>
-      </c>
-      <c r="V4" s="6">
-        <v>1.1839999999999999</v>
-      </c>
-      <c r="W4" s="6">
-        <v>1.135</v>
-      </c>
-      <c r="X4" s="6">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>0.93799999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
+      <c r="B4" s="5">
+        <v>0.38408054139425912</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.35933659260349149</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.37804826809364339</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.37211537914408938</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.36047941839430803</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.3194139373698977</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.340822635509271</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.31335395300990598</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.26688073249627581</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.33000436605424316</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.3590486964129484</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.35468886439195096</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.35325196229221345</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.33417588066491694</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.33178323560804901</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.32737990006384343</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.33951184277368551</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.27900474066548137</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0.17849095366503301</v>
+      </c>
+      <c r="U4" s="5">
+        <v>9.4472435390552403E-2</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0.1836899922915041</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0.22545960149578079</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0.25875928764146422</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0.32238809057658119</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
@@ -1870,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867F374D-6AFF-43B6-B370-B2ECC1DAC459}">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1958,76 +1947,76 @@
         <v>39</v>
       </c>
       <c r="B2" s="5">
-        <v>0.52236078409734032</v>
+        <v>0.3415913978494623</v>
       </c>
       <c r="C2" s="5">
-        <v>0.4976949585403172</v>
+        <v>0.3032688172043011</v>
       </c>
       <c r="D2" s="5">
-        <v>0.44207707194659279</v>
+        <v>0.29459139784946226</v>
       </c>
       <c r="E2" s="5">
-        <v>0.43777742669441688</v>
+        <v>0.28721505376344075</v>
       </c>
       <c r="F2" s="5">
-        <v>0.43521624705520451</v>
+        <v>0.29210752688172037</v>
       </c>
       <c r="G2" s="5">
-        <v>0.44168559400742047</v>
+        <v>0.29610752688172037</v>
       </c>
       <c r="H2" s="5">
-        <v>0.43422701750307208</v>
+        <v>0.31112903225806449</v>
       </c>
       <c r="I2" s="5">
-        <v>0.36220495359399552</v>
+        <v>0.345741935483871</v>
       </c>
       <c r="J2" s="5">
-        <v>0.36220495359399552</v>
+        <v>0.38683870967741929</v>
       </c>
       <c r="K2" s="5">
-        <v>0.36220495359399552</v>
+        <v>0.41622580645161295</v>
       </c>
       <c r="L2" s="5">
-        <v>0.36220495359399552</v>
+        <v>0.45535483870967736</v>
       </c>
       <c r="M2" s="5">
-        <v>0.57877143627095295</v>
+        <v>0.41387096774193538</v>
       </c>
       <c r="N2" s="5">
-        <v>0.49813638937877719</v>
+        <v>0.37684946236559141</v>
       </c>
       <c r="O2" s="5">
-        <v>0.36220495359399552</v>
+        <v>0.3618279569892473</v>
       </c>
       <c r="P2" s="5">
-        <v>0.36220495359399552</v>
+        <v>0.33379569892473121</v>
       </c>
       <c r="Q2" s="5">
-        <v>0.36220495359399552</v>
+        <v>0.3368387096774193</v>
       </c>
       <c r="R2" s="5">
-        <v>0.63254991786411985</v>
+        <v>0.3406989247311828</v>
       </c>
       <c r="S2" s="5">
-        <v>0.76515335565616571</v>
+        <v>0.3688709677419354</v>
       </c>
       <c r="T2" s="5">
-        <v>0.69171444098597745</v>
+        <v>0.40449462365591399</v>
       </c>
       <c r="U2" s="5">
-        <v>0.70649159906935721</v>
+        <v>0.4571935483870968</v>
       </c>
       <c r="V2" s="5">
-        <v>0.65930040212538521</v>
+        <v>0.47998924731182802</v>
       </c>
       <c r="W2" s="5">
-        <v>0.68374114412375109</v>
+        <v>0.46408602150537631</v>
       </c>
       <c r="X2" s="5">
-        <v>0.6465764204867005</v>
+        <v>0.4129677419354838</v>
       </c>
       <c r="Y2" s="5">
-        <v>0.52784287934130891</v>
+        <v>0.40031182795698916</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
@@ -2035,76 +2024,76 @@
         <v>40</v>
       </c>
       <c r="B3" s="5">
-        <v>0.4532206627457997</v>
+        <v>0.21991235409714491</v>
       </c>
       <c r="C3" s="5">
-        <v>0.42851577557190434</v>
+        <v>0.2022554430849092</v>
       </c>
       <c r="D3" s="5">
-        <v>0.41006267002011798</v>
+        <v>0.1989724805339266</v>
       </c>
       <c r="E3" s="5">
-        <v>0.40494640291925321</v>
+        <v>0.1943889349276974</v>
       </c>
       <c r="F3" s="5">
-        <v>0.39784783272475621</v>
+        <v>0.1977337921764924</v>
       </c>
       <c r="G3" s="5">
-        <v>0.38054976568865906</v>
+        <v>0.19963307378568779</v>
       </c>
       <c r="H3" s="5">
-        <v>0.355582734009113</v>
+        <v>0.201662763255469</v>
       </c>
       <c r="I3" s="5">
-        <v>0.28022226441607873</v>
+        <v>0.25593645624768269</v>
       </c>
       <c r="J3" s="5">
-        <v>0.26214099497469462</v>
+        <v>0.29590260196514651</v>
       </c>
       <c r="K3" s="5">
-        <v>0.26214099497469462</v>
+        <v>0.71686566184649603</v>
       </c>
       <c r="L3" s="5">
-        <v>0.26214099497469462</v>
+        <v>0.98609198832035616</v>
       </c>
       <c r="M3" s="5">
-        <v>0.37042423631317345</v>
+        <v>1.1079663172043011</v>
       </c>
       <c r="N3" s="5">
-        <v>0.33010671286708548</v>
+        <v>1.1344969150908422</v>
       </c>
       <c r="O3" s="5">
-        <v>0.26214099497469462</v>
+        <v>1.1773252428624401</v>
       </c>
       <c r="P3" s="5">
-        <v>0.26214099497469462</v>
+        <v>1.1448735965888028</v>
       </c>
       <c r="Q3" s="5">
-        <v>0.26214099497469462</v>
+        <v>1.0590023433444569</v>
       </c>
       <c r="R3" s="5">
-        <v>0.39731347710975679</v>
+        <v>0.91320897385984434</v>
       </c>
       <c r="S3" s="5">
-        <v>0.46361519600577983</v>
+        <v>0.45774870354676422</v>
       </c>
       <c r="T3" s="5">
-        <v>0.4268957386706857</v>
+        <v>0.32752397849462356</v>
       </c>
       <c r="U3" s="5">
-        <v>0.43428431771237552</v>
+        <v>0.33216667141577061</v>
       </c>
       <c r="V3" s="5">
-        <v>0.42149519720844475</v>
+        <v>0.33377549310035853</v>
       </c>
       <c r="W3" s="5">
-        <v>0.4546003728097659</v>
+        <v>0.32659524130824369</v>
       </c>
       <c r="X3" s="5">
-        <v>0.45266785406408228</v>
+        <v>0.30095148207885303</v>
       </c>
       <c r="Y3" s="5">
-        <v>0.42511548495894508</v>
+        <v>0.29418877231182788</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
@@ -2112,82 +2101,77 @@
         <v>41</v>
       </c>
       <c r="B4" s="5">
-        <v>0.38408054139425912</v>
+        <v>9.8233310344827587E-2</v>
       </c>
       <c r="C4" s="5">
-        <v>0.35933659260349149</v>
+        <v>0.10124206896551721</v>
       </c>
       <c r="D4" s="5">
-        <v>0.37804826809364339</v>
+        <v>0.1033535632183908</v>
       </c>
       <c r="E4" s="5">
-        <v>0.37211537914408938</v>
+        <v>0.101562816091954</v>
       </c>
       <c r="F4" s="5">
-        <v>0.36047941839430803</v>
+        <v>0.10336005747126439</v>
       </c>
       <c r="G4" s="5">
-        <v>0.3194139373698977</v>
+        <v>0.1031586206896552</v>
       </c>
       <c r="H4" s="5">
-        <v>0.27693845051515387</v>
+        <v>9.2196494252873559E-2</v>
       </c>
       <c r="I4" s="5">
-        <v>0.19823957523816191</v>
+        <v>0.16613097701149432</v>
       </c>
       <c r="J4" s="5">
-        <v>0.16207703635539389</v>
+        <v>0.20496649425287358</v>
       </c>
       <c r="K4" s="5">
-        <v>0.16207703635539389</v>
+        <v>1.0175055172413789</v>
       </c>
       <c r="L4" s="5">
-        <v>0.16207703635539389</v>
+        <v>1.5168291379310348</v>
       </c>
       <c r="M4" s="5">
-        <v>0.16207703635539389</v>
+        <v>1.802061666666666</v>
       </c>
       <c r="N4" s="5">
-        <v>0.16207703635539389</v>
+        <v>1.8921443678160921</v>
       </c>
       <c r="O4" s="5">
-        <v>0.16207703635539389</v>
+        <v>1.992822528735632</v>
       </c>
       <c r="P4" s="5">
-        <v>0.16207703635539389</v>
+        <v>1.955951494252874</v>
       </c>
       <c r="Q4" s="5">
-        <v>0.16207703635539389</v>
+        <v>1.781165977011494</v>
       </c>
       <c r="R4" s="5">
-        <v>0.16207703635539389</v>
+        <v>1.485719022988506</v>
       </c>
       <c r="S4" s="5">
-        <v>0.16207703635539389</v>
+        <v>0.54662643935159305</v>
       </c>
       <c r="T4" s="5">
-        <v>0.16207703635539389</v>
+        <v>0.25055333333333329</v>
       </c>
       <c r="U4" s="5">
-        <v>0.16207703635539389</v>
+        <v>0.20713979444444439</v>
       </c>
       <c r="V4" s="5">
-        <v>0.1836899922915041</v>
+        <v>0.18756173888888888</v>
       </c>
       <c r="W4" s="5">
-        <v>0.22545960149578079</v>
+        <v>0.18910446111111109</v>
       </c>
       <c r="X4" s="5">
-        <v>0.25875928764146422</v>
+        <v>0.1889352222222222</v>
       </c>
       <c r="Y4" s="5">
-        <v>0.32238809057658119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+        <v>0.18806571666666658</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
@@ -2290,6 +2274,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D835CF4C7D56B243BA013D4D2E10914B" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2e645ef68b9493f2ee8bae9e534bc24f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d4e152b-60f6-4719-8921-68b5b8011cde" xmlns:ns4="28683373-984a-4841-9f0e-018f3f7bab1f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a06da6e71fc3d3bdf7cbe176c2a8afa1" ns3:_="" ns4:_="">
     <xsd:import namespace="6d4e152b-60f6-4719-8921-68b5b8011cde"/>
@@ -2542,15 +2535,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2560,6 +2544,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCE34160-36D4-4F46-97A9-A281FB44CDD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCE4FBA5-6C26-4B97-9218-92B658F853C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2574,14 +2566,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCE34160-36D4-4F46-97A9-A281FB44CDD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
